--- a/biology/Botanique/Cryptantha/Cryptantha.xlsx
+++ b/biology/Botanique/Cryptantha/Cryptantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptantha est un genre de plantes à fleurs de la famille des Boraginaceae. Il comprend une centaine d'espèces originaires des Amériques, dont l'espèce type Cryptantha glomerata.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (10 juin 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (10 juin 2021) :
 Cryptantha abata I.M.Johnst.
 Cryptantha affinis (A.Gray) Greene
 Cryptantha alfalfalis (Phil.) I.M.Johnst.
@@ -647,10 +661,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryptantha glomerata est l'espèce type, décrite en 1837 par le botaniste écossais George Don, à partir des travaux du naturaliste allemand Johann Georg Christian Lehmann[1].
-Les genres suivants sont synonymes de Cryptantha selon GRIN            (10 juin 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryptantha glomerata est l'espèce type, décrite en 1837 par le botaniste écossais George Don, à partir des travaux du naturaliste allemand Johann Georg Christian Lehmann.
+Les genres suivants sont synonymes de Cryptantha selon GRIN            (10 juin 2021) :
 Eremocarya Greene (synonyme possible)
 Greeneocharis Gürke &amp; Harms
 Johnstonella Brand
